--- a/CodeVS/data/output/tugboat_schedule.xlsx
+++ b/CodeVS/data/output/tugboat_schedule.xlsx
@@ -2008,221 +2008,221 @@
   <dxfs count="22">
     <dxf>
       <font>
-        <color rgb="FFC4EB12"/>
+        <color rgb="FF399677"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC4EB12"/>
+          <bgColor rgb="FF399677"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7FB847"/>
+        <color rgb="FFF73ADC"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7FB847"/>
+          <bgColor rgb="FFF73ADC"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF801DDF"/>
+        <color rgb="FF7B495F"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF801DDF"/>
+          <bgColor rgb="FF7B495F"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC1D854"/>
+        <color rgb="FF930131"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC1D854"/>
+          <bgColor rgb="FF930131"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7E5252"/>
+        <color rgb="FFB4602E"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7E5252"/>
+          <bgColor rgb="FFB4602E"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF8EFA80"/>
+        <color rgb="FF634EFE"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF8EFA80"/>
+          <bgColor rgb="FF634EFE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFB35DF4"/>
+        <color rgb="FF7056E1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFB35DF4"/>
+          <bgColor rgb="FF7056E1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF3B2C3B"/>
+        <color rgb="FF8CF062"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF3B2C3B"/>
+          <bgColor rgb="FF8CF062"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF153B0E"/>
+        <color rgb="FFE6A638"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF153B0E"/>
+          <bgColor rgb="FFE6A638"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF24D013"/>
+        <color rgb="FF7FA618"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF24D013"/>
+          <bgColor rgb="FF7FA618"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFEA11DC"/>
+        <color rgb="FFE7D70B"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEA11DC"/>
+          <bgColor rgb="FFE7D70B"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF734AB1"/>
+        <color rgb="FF0809CA"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF734AB1"/>
+          <bgColor rgb="FF0809CA"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFF6A3A8"/>
+        <color rgb="FFD8E1C8"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF6A3A8"/>
+          <bgColor rgb="FFD8E1C8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF4860B5"/>
+        <color rgb="FF58EE99"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF4860B5"/>
+          <bgColor rgb="FF58EE99"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF257E60"/>
+        <color rgb="FFF32B76"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF257E60"/>
+          <bgColor rgb="FFF32B76"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFAF46F7"/>
+        <color rgb="FF384802"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFAF46F7"/>
+          <bgColor rgb="FF384802"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF12B603"/>
+        <color rgb="FF2238C4"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF12B603"/>
+          <bgColor rgb="FF2238C4"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9547C7"/>
+        <color rgb="FF8E5E1E"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF9547C7"/>
+          <bgColor rgb="FF8E5E1E"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFA4E77B"/>
+        <color rgb="FFE10771"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFA4E77B"/>
+          <bgColor rgb="FFE10771"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFE2E74B"/>
+        <color rgb="FFC5E6C9"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE2E74B"/>
+          <bgColor rgb="FFC5E6C9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFAD414F"/>
+        <color rgb="FFEBAC68"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFAD414F"/>
+          <bgColor rgb="FFEBAC68"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF630648"/>
+        <color rgb="FF185E17"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF630648"/>
+          <bgColor rgb="FF185E17"/>
         </patternFill>
       </fill>
     </dxf>
